--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8155,4 +8156,5568 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.2804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.6625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0621</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5889</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5170</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4835</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004081</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004082</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13720,4 +13721,2872 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.5410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7914</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4543</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9688</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>37.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16589,4 +16590,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>145</v>
+      </c>
+      <c r="D3" t="n">
+        <v>86.84999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16598,7 +16599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16609,17 +16610,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16629,14 +16650,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.98999999999999</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.8983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -16645,14 +16688,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>145</v>
-      </c>
-      <c r="D3" t="n">
-        <v>86.84999999999999</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -16661,14 +16726,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>123</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.20999999999999</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5837</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -16677,13 +16764,1253 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8909</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5617</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>145</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86.84999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>123</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>77</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17909,7 +17910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17920,17 +17921,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17940,14 +17961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.93</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -17956,14 +17999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.98999999999999</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -17972,14 +18037,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>145</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.84999999999999</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17988,14 +18075,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>123</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64.20999999999999</v>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7859</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -18004,13 +18113,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0763</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4583</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>145</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.84999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>28.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19258,7 +19259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19269,17 +19270,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19289,14 +19310,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.92</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -19305,14 +19348,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.93</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -19321,14 +19386,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.98999999999999</v>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -19337,14 +19424,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>145</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86.84999999999999</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -19353,14 +19462,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>123</v>
-      </c>
-      <c r="D6" t="n">
-        <v>64.20999999999999</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -19369,13 +19500,1093 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>145</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.84999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>77</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>28.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>20.16</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>33.92</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>45.93</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>65.98999999999999</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>86.84999999999999</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D7" t="n">
-        <v>64.20999999999999</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>123</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>77</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>28.3</v>
       </c>
     </row>
@@ -600,6 +617,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8635</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3141,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4451,7 +6158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7319,7 +9026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12883,7 +14590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17613,7 +19320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601233-桐昆股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>17.72</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>20.16</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>33.92</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>45.93</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>65.98999999999999</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>86.84999999999999</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D8" t="n">
-        <v>64.20999999999999</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3012 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64.20999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>77</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>28.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3616,1884 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定开混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>017493</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>017535</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +7183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3500,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4848,7 +9725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6158,7 +11035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9026,7 +13903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14590,7 +19467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19318,2986 +24195,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004997</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>151.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>13.7537</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009264</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德瑞兴三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>73.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.3266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010160</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7563</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2345</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010201</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银汇理智增一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0295</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8925</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160106</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方高增长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8638</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7451</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>121002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银景气行业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>71.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4675</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安平衡混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4362</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010235</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发资源优选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3701</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>660005</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3113</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001564</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方红京东大数据灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3092</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.08</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2462</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005402</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发资源优选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2405</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006642</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2093</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2025</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1953</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1766</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>660004</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>农银策略价值混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1596</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519963</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1537</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005904</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1511</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519961</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1467</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009606</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1280</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003401</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债债券</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>30.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>660003</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>农银平衡双利混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>78.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1216</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1216</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>金鹰产业整合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0788</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002622</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>广发稳裕混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>23.58</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0677</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0669</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008420</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发招泰混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>23.28</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001312</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0639</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007385</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华泰保兴安盈三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003026</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>安信新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>210010</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>金鹰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>25.26</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>020022</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>国泰策略价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004157</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004158</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001415</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002046</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005445</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华宝价值发现混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0406</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>009842</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>东方红明鉴优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>23.01</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009493</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009607</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006823</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>凯石湛混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>519960</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>002144</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008421</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>广发招泰混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>23.28</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>006822</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>凯石湛混合A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>80.08</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>005905</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>001474</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>兴银丰盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>003027</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>安信新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>519962</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>003760</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>国泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>510440</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>大成中证500沪市ETF</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>98.40</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>009494</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>162907</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>519117</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>浦银安盛基本面400指数</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>210011</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>金鹰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>25.26</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>003761</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>国泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>